--- a/output/FreqDiscovCitptile0.9alpha0.05power0.5N1000/FreqDiscovCitptile0.9alpha0.05power0.5N1000N1000.xlsx
+++ b/output/FreqDiscovCitptile0.9alpha0.05power0.5N1000/FreqDiscovCitptile0.9alpha0.05power0.5N1000N1000.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lewan\Documents\MATLAB\Modeling\Replication market\output\FreqDiscovCitptile0.9alpha0.05power0.5N1000\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6BDFFB5-1E6B-4360-B913-16564331E88C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3E2009C-03BC-4067-BFAF-05E026F6EEB1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29190" yWindow="2250" windowWidth="21600" windowHeight="12735" xr2:uid="{D69E29F8-E5EB-47CB-BC70-0FA1128B4377}"/>
+    <workbookView xWindow="1152" yWindow="6684" windowWidth="27060" windowHeight="10800" xr2:uid="{EFE9E627-3CA2-431D-B361-6D1459E6FB3D}"/>
   </bookViews>
   <sheets>
     <sheet name="results" sheetId="4" r:id="rId1"/>
@@ -466,29 +466,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09412464-3B74-465E-9779-317C80B44E5B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C29CC03-DC65-4987-8C82-B3A8BF2F0A07}">
   <dimension ref="A1:O17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="12" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -535,7 +535,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -543,46 +543,46 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4.8303906294976481E-2</v>
+        <v>4.9242347317441156E-2</v>
       </c>
       <c r="D2">
-        <v>0.50401667592968502</v>
+        <v>0.51507885303993983</v>
       </c>
       <c r="E2">
-        <v>9.0039999999999996</v>
+        <v>9.0649999999999995</v>
       </c>
       <c r="F2">
-        <v>108.88200000000001</v>
+        <v>109.15900000000001</v>
       </c>
       <c r="G2">
-        <v>2.524</v>
+        <v>2.62</v>
       </c>
       <c r="H2">
-        <v>0.38300000000000001</v>
+        <v>0.39200000000000002</v>
       </c>
       <c r="I2">
-        <v>0.33500000000000002</v>
+        <v>0.35299999999999998</v>
       </c>
       <c r="J2">
-        <v>4.8024535410553702E-2</v>
+        <v>4.9366759472606297E-2</v>
       </c>
       <c r="K2">
-        <v>0.51068521548397727</v>
+        <v>0.50839024071166949</v>
       </c>
       <c r="L2">
-        <v>8.8819999999999997</v>
+        <v>9.1590000000000007</v>
       </c>
       <c r="M2">
-        <v>108.88200000000001</v>
+        <v>109.15900000000001</v>
       </c>
       <c r="N2">
-        <v>0.36099999999999999</v>
+        <v>0.36</v>
       </c>
       <c r="O2">
-        <v>0.32400000000000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0</v>
       </c>
@@ -590,46 +590,46 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>4.8625212267512048E-2</v>
+        <v>5.0335117463490987E-2</v>
       </c>
       <c r="D3">
-        <v>0.52304494517686873</v>
+        <v>0.51513959388760289</v>
       </c>
       <c r="E3">
-        <v>8.9420000000000002</v>
+        <v>9.0389999999999997</v>
       </c>
       <c r="F3">
-        <v>109.035</v>
+        <v>109.19499999999999</v>
       </c>
       <c r="G3">
-        <v>2.609</v>
+        <v>2.633</v>
       </c>
       <c r="H3">
-        <v>0.26400000000000001</v>
+        <v>0.253</v>
       </c>
       <c r="I3">
-        <v>0.251</v>
+        <v>0.25900000000000001</v>
       </c>
       <c r="J3">
-        <v>4.412437128486512E-2</v>
+        <v>5.2179656538969617E-2</v>
       </c>
       <c r="K3">
-        <v>0.50245098039215674</v>
+        <v>0.49955076370170703</v>
       </c>
       <c r="L3">
-        <v>9.0350000000000001</v>
+        <v>9.1950000000000003</v>
       </c>
       <c r="M3">
-        <v>100.92700000000001</v>
+        <v>100.917</v>
       </c>
       <c r="N3">
-        <v>0.29299999999999998</v>
+        <v>0.28100000000000003</v>
       </c>
       <c r="O3">
-        <v>0.25800000000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.23300000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0</v>
       </c>
@@ -637,46 +637,46 @@
         <v>5</v>
       </c>
       <c r="C4">
-        <v>4.9601009940880909E-2</v>
+        <v>4.9327248011965183E-2</v>
       </c>
       <c r="D4">
-        <v>0.52556801048824131</v>
+        <v>0.51675940127796816</v>
       </c>
       <c r="E4">
-        <v>8.9049999999999994</v>
+        <v>9.0830000000000002</v>
       </c>
       <c r="F4">
-        <v>109.11499999999999</v>
+        <v>109.179</v>
       </c>
       <c r="G4">
-        <v>2.6269999999999998</v>
+        <v>2.601</v>
       </c>
       <c r="H4">
-        <v>0.36699999999999999</v>
+        <v>0.377</v>
       </c>
       <c r="I4">
-        <v>0.30599999999999999</v>
+        <v>0.35099999999999998</v>
       </c>
       <c r="J4">
-        <v>2.8789986091794159E-2</v>
+        <v>5.0599354541263256E-2</v>
       </c>
       <c r="K4">
-        <v>0.55522486772486779</v>
+        <v>0.52913359788359793</v>
       </c>
       <c r="L4">
-        <v>9.1150000000000002</v>
+        <v>9.1790000000000003</v>
       </c>
       <c r="M4">
-        <v>101.268</v>
+        <v>101.313</v>
       </c>
       <c r="N4">
-        <v>0.39800000000000002</v>
+        <v>0.42099999999999999</v>
       </c>
       <c r="O4">
-        <v>0.36799999999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.373</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>0</v>
       </c>
@@ -684,46 +684,46 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>5.002236540756836E-2</v>
+        <v>5.0497370590965464E-2</v>
       </c>
       <c r="D5">
-        <v>0.50861604354821666</v>
+        <v>0.52283835471196383</v>
       </c>
       <c r="E5">
-        <v>9.0359999999999996</v>
+        <v>8.9480000000000004</v>
       </c>
       <c r="F5">
-        <v>109.20399999999999</v>
+        <v>109.199</v>
       </c>
       <c r="G5">
-        <v>2.6669999999999998</v>
+        <v>2.6240000000000001</v>
       </c>
       <c r="H5">
-        <v>0.61799999999999999</v>
+        <v>0.66500000000000004</v>
       </c>
       <c r="I5">
-        <v>0.53200000000000003</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="J5">
-        <v>5.5148690634709285E-2</v>
+        <v>5.5239898989898992E-2</v>
       </c>
       <c r="K5">
-        <v>0.50774719673802227</v>
+        <v>0.52311388410786008</v>
       </c>
       <c r="L5">
-        <v>9.2040000000000006</v>
+        <v>9.1989999999999998</v>
       </c>
       <c r="M5">
-        <v>102.134</v>
+        <v>102.24299999999999</v>
       </c>
       <c r="N5">
-        <v>0.625</v>
+        <v>0.64900000000000002</v>
       </c>
       <c r="O5">
-        <v>0.56000000000000005</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.58299999999999996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1</v>
       </c>
@@ -731,46 +731,46 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>6.7099725865816709E-2</v>
+        <v>8.5507876019160836E-2</v>
       </c>
       <c r="D6">
-        <v>0.59804125455722856</v>
+        <v>0.66908357819987896</v>
       </c>
       <c r="E6">
-        <v>9.0229999999999997</v>
+        <v>8.859</v>
       </c>
       <c r="F6">
-        <v>111.46899999999999</v>
+        <v>113.77200000000001</v>
       </c>
       <c r="G6">
-        <v>3.6040000000000001</v>
+        <v>4.7089999999999996</v>
       </c>
       <c r="H6">
-        <v>0.48199999999999998</v>
+        <v>0.69</v>
       </c>
       <c r="I6">
-        <v>0.498</v>
+        <v>0.54600000000000004</v>
       </c>
       <c r="J6">
-        <v>6.6125502275502332E-2</v>
+        <v>8.4461596736596839E-2</v>
       </c>
       <c r="K6">
-        <v>0.60709908517108047</v>
+        <v>0.66646770333597216</v>
       </c>
       <c r="L6">
-        <v>11.468999999999999</v>
+        <v>13.772</v>
       </c>
       <c r="M6">
-        <v>111.46899999999999</v>
+        <v>113.77200000000001</v>
       </c>
       <c r="N6">
-        <v>0.499</v>
+        <v>0.626</v>
       </c>
       <c r="O6">
-        <v>0.46</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.59499999999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1</v>
       </c>
@@ -778,46 +778,46 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>6.9166745628711321E-2</v>
+        <v>8.4430324490014794E-2</v>
       </c>
       <c r="D7">
-        <v>0.59540702498489462</v>
+        <v>0.67821599407964595</v>
       </c>
       <c r="E7">
-        <v>9.0459999999999994</v>
+        <v>8.8819999999999997</v>
       </c>
       <c r="F7">
-        <v>111.709</v>
+        <v>113.66800000000001</v>
       </c>
       <c r="G7">
-        <v>3.5680000000000001</v>
+        <v>4.7690000000000001</v>
       </c>
       <c r="H7">
-        <v>0.33700000000000002</v>
+        <v>0.495</v>
       </c>
       <c r="I7">
-        <v>0.32200000000000001</v>
+        <v>0.40400000000000003</v>
       </c>
       <c r="J7">
-        <v>6.3784629133154608E-2</v>
+        <v>8.305412371134023E-2</v>
       </c>
       <c r="K7">
-        <v>0.59586180713743353</v>
+        <v>0.70254988913525518</v>
       </c>
       <c r="L7">
-        <v>11.709</v>
+        <v>13.667999999999999</v>
       </c>
       <c r="M7">
-        <v>101.178</v>
+        <v>101.437</v>
       </c>
       <c r="N7">
-        <v>0.41499999999999998</v>
+        <v>0.52200000000000002</v>
       </c>
       <c r="O7">
-        <v>0.35499999999999998</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.438</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1</v>
       </c>
@@ -825,46 +825,46 @@
         <v>5</v>
       </c>
       <c r="C8">
-        <v>6.6970299657581583E-2</v>
+        <v>8.4909405838945101E-2</v>
       </c>
       <c r="D8">
-        <v>0.59287474966899467</v>
+        <v>0.67521954156030217</v>
       </c>
       <c r="E8">
-        <v>9.0210000000000008</v>
+        <v>8.8989999999999991</v>
       </c>
       <c r="F8">
-        <v>111.489</v>
+        <v>113.78</v>
       </c>
       <c r="G8">
-        <v>3.589</v>
+        <v>4.7240000000000002</v>
       </c>
       <c r="H8">
-        <v>0.56499999999999995</v>
+        <v>0.70399999999999996</v>
       </c>
       <c r="I8">
-        <v>0.499</v>
+        <v>0.57899999999999996</v>
       </c>
       <c r="J8">
-        <v>6.0162601626016263E-2</v>
+        <v>7.5454545454545469E-2</v>
       </c>
       <c r="K8">
-        <v>0.58685044359949301</v>
+        <v>0.67438380281690125</v>
       </c>
       <c r="L8">
-        <v>11.489000000000001</v>
+        <v>13.78</v>
       </c>
       <c r="M8">
-        <v>101.607</v>
+        <v>101.986</v>
       </c>
       <c r="N8">
-        <v>0.51100000000000001</v>
+        <v>0.68500000000000005</v>
       </c>
       <c r="O8">
-        <v>0.44500000000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.58599999999999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1</v>
       </c>
@@ -872,46 +872,46 @@
         <v>10</v>
       </c>
       <c r="C9">
-        <v>6.7101883831746936E-2</v>
+        <v>8.4178998781848535E-2</v>
       </c>
       <c r="D9">
-        <v>0.60845756477555124</v>
+        <v>0.67173359445427372</v>
       </c>
       <c r="E9">
-        <v>9.0709999999999997</v>
+        <v>9.11</v>
       </c>
       <c r="F9">
-        <v>111.533</v>
+        <v>113.729</v>
       </c>
       <c r="G9">
-        <v>3.702</v>
+        <v>4.758</v>
       </c>
       <c r="H9">
-        <v>0.89200000000000002</v>
+        <v>1.1220000000000001</v>
       </c>
       <c r="I9">
-        <v>0.83599999999999997</v>
+        <v>0.98699999999999999</v>
       </c>
       <c r="J9">
-        <v>6.3789560213727919E-2</v>
+        <v>8.1725985457328745E-2</v>
       </c>
       <c r="K9">
-        <v>0.62348795840175175</v>
+        <v>0.67699790196452503</v>
       </c>
       <c r="L9">
-        <v>11.532999999999999</v>
+        <v>13.728999999999999</v>
       </c>
       <c r="M9">
-        <v>102.664</v>
+        <v>103.267</v>
       </c>
       <c r="N9">
-        <v>0.86599999999999999</v>
+        <v>1.1319999999999999</v>
       </c>
       <c r="O9">
-        <v>0.76800000000000002</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.97899999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>5</v>
       </c>
@@ -919,46 +919,46 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>9.9718869021989121E-2</v>
+        <v>0.1105849095065634</v>
       </c>
       <c r="D10">
-        <v>0.80667577264584545</v>
+        <v>0.86875627133346889</v>
       </c>
       <c r="E10">
-        <v>9.0069999999999997</v>
+        <v>9.0980000000000008</v>
       </c>
       <c r="F10">
-        <v>116.28400000000001</v>
+        <v>118.039</v>
       </c>
       <c r="G10">
-        <v>6.7569999999999997</v>
+        <v>8.125</v>
       </c>
       <c r="H10">
-        <v>1.0189999999999999</v>
+        <v>1.1539999999999999</v>
       </c>
       <c r="I10">
-        <v>0.88300000000000001</v>
+        <v>1.01</v>
       </c>
       <c r="J10">
-        <v>9.7963994906023075E-2</v>
+        <v>0.11307857423793989</v>
       </c>
       <c r="K10">
-        <v>0.80934825097740715</v>
+        <v>0.87610585021925858</v>
       </c>
       <c r="L10">
-        <v>16.283999999999999</v>
+        <v>18.039000000000001</v>
       </c>
       <c r="M10">
-        <v>116.28400000000001</v>
+        <v>118.039</v>
       </c>
       <c r="N10">
-        <v>0.88800000000000001</v>
+        <v>1.143</v>
       </c>
       <c r="O10">
-        <v>0.89300000000000002</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1.1220000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>5</v>
       </c>
@@ -966,46 +966,46 @@
         <v>1</v>
       </c>
       <c r="C11">
-        <v>0.10090121895668258</v>
+        <v>0.10897243023248308</v>
       </c>
       <c r="D11">
-        <v>0.80145922143237591</v>
+        <v>0.8799574834849947</v>
       </c>
       <c r="E11">
-        <v>9.1029999999999998</v>
+        <v>8.9589999999999996</v>
       </c>
       <c r="F11">
-        <v>116.515</v>
+        <v>117.767</v>
       </c>
       <c r="G11">
-        <v>6.7850000000000001</v>
+        <v>7.9349999999999996</v>
       </c>
       <c r="H11">
-        <v>0.68400000000000005</v>
+        <v>0.80100000000000005</v>
       </c>
       <c r="I11">
-        <v>0.60899999999999999</v>
+        <v>0.70599999999999996</v>
       </c>
       <c r="J11">
-        <v>9.3090986394557818E-2</v>
+        <v>0.10998727735368953</v>
       </c>
       <c r="K11">
-        <v>0.79529671717171713</v>
+        <v>0.90513285024154622</v>
       </c>
       <c r="L11">
-        <v>16.515000000000001</v>
+        <v>17.766999999999999</v>
       </c>
       <c r="M11">
-        <v>101.693</v>
+        <v>101.842</v>
       </c>
       <c r="N11">
-        <v>0.70499999999999996</v>
+        <v>0.876</v>
       </c>
       <c r="O11">
-        <v>0.60599999999999998</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.752</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>5</v>
       </c>
@@ -1013,46 +1013,46 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>0.10149558953576417</v>
+        <v>0.11003593138538417</v>
       </c>
       <c r="D12">
-        <v>0.81162480300035211</v>
+        <v>0.87151209886331993</v>
       </c>
       <c r="E12">
-        <v>9.1140000000000008</v>
+        <v>8.8559999999999999</v>
       </c>
       <c r="F12">
-        <v>116.654</v>
+        <v>117.806</v>
       </c>
       <c r="G12">
-        <v>6.9489999999999998</v>
+        <v>7.8840000000000003</v>
       </c>
       <c r="H12">
-        <v>0.92100000000000004</v>
+        <v>1.234</v>
       </c>
       <c r="I12">
-        <v>0.89500000000000002</v>
+        <v>0.91300000000000003</v>
       </c>
       <c r="J12">
-        <v>8.2513005202080839E-2</v>
+        <v>0.11307506053268759</v>
       </c>
       <c r="K12">
-        <v>0.82588541666666693</v>
+        <v>0.87141429285357308</v>
       </c>
       <c r="L12">
-        <v>16.654</v>
+        <v>17.806000000000001</v>
       </c>
       <c r="M12">
-        <v>102.386</v>
+        <v>102.511</v>
       </c>
       <c r="N12">
-        <v>0.99</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="O12">
-        <v>0.87</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.97799999999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>5</v>
       </c>
@@ -1060,46 +1060,46 @@
         <v>10</v>
       </c>
       <c r="C13">
-        <v>0.10055485333588764</v>
+        <v>0.10979421495942872</v>
       </c>
       <c r="D13">
-        <v>0.80728995000478954</v>
+        <v>0.87621060551505914</v>
       </c>
       <c r="E13">
-        <v>9.1969999999999992</v>
+        <v>8.8960000000000008</v>
       </c>
       <c r="F13">
-        <v>116.495</v>
+        <v>117.708</v>
       </c>
       <c r="G13">
-        <v>6.891</v>
+        <v>7.8940000000000001</v>
       </c>
       <c r="H13">
-        <v>1.532</v>
+        <v>1.915</v>
       </c>
       <c r="I13">
-        <v>1.353</v>
+        <v>1.7310000000000001</v>
       </c>
       <c r="J13">
-        <v>9.5919494869771166E-2</v>
+        <v>0.10941049286235281</v>
       </c>
       <c r="K13">
-        <v>0.7995173745173747</v>
+        <v>0.87323826966684082</v>
       </c>
       <c r="L13">
-        <v>16.495000000000001</v>
+        <v>17.707999999999998</v>
       </c>
       <c r="M13">
-        <v>103.95399999999999</v>
+        <v>104.133</v>
       </c>
       <c r="N13">
-        <v>1.629</v>
+        <v>1.831</v>
       </c>
       <c r="O13">
-        <v>1.4019999999999999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1.5740000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>10</v>
       </c>
@@ -1107,46 +1107,46 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.11250562244765427</v>
+        <v>0.12045064097460614</v>
       </c>
       <c r="D14">
-        <v>0.88624129990229139</v>
+        <v>0.94367390681381036</v>
       </c>
       <c r="E14">
-        <v>8.9969999999999999</v>
+        <v>8.83</v>
       </c>
       <c r="F14">
-        <v>118.09099999999999</v>
+        <v>119.33499999999999</v>
       </c>
       <c r="G14">
-        <v>8.0749999999999993</v>
+        <v>9.1449999999999996</v>
       </c>
       <c r="H14">
-        <v>1.1719999999999999</v>
+        <v>1.2669999999999999</v>
       </c>
       <c r="I14">
-        <v>1.02</v>
+        <v>1.0860000000000001</v>
       </c>
       <c r="J14">
-        <v>0.11536587729436067</v>
+        <v>0.11626653296948128</v>
       </c>
       <c r="K14">
-        <v>0.88181033903988504</v>
+        <v>0.94809011810301869</v>
       </c>
       <c r="L14">
-        <v>18.091000000000001</v>
+        <v>19.335000000000001</v>
       </c>
       <c r="M14">
-        <v>118.09099999999999</v>
+        <v>119.33499999999999</v>
       </c>
       <c r="N14">
-        <v>1.17</v>
+        <v>1.3859999999999999</v>
       </c>
       <c r="O14">
-        <v>1.034</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1.1319999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>10</v>
       </c>
@@ -1154,46 +1154,46 @@
         <v>1</v>
       </c>
       <c r="C15">
-        <v>0.11281166550233519</v>
+        <v>0.11802319054037917</v>
       </c>
       <c r="D15">
-        <v>0.89512084346673282</v>
+        <v>0.94141319015861424</v>
       </c>
       <c r="E15">
-        <v>8.8629999999999995</v>
+        <v>8.9339999999999993</v>
       </c>
       <c r="F15">
-        <v>118.173</v>
+        <v>119.235</v>
       </c>
       <c r="G15">
-        <v>8.2230000000000008</v>
+        <v>9.3119999999999994</v>
       </c>
       <c r="H15">
-        <v>0.82799999999999996</v>
+        <v>0.94</v>
       </c>
       <c r="I15">
-        <v>0.71499999999999997</v>
+        <v>0.83199999999999996</v>
       </c>
       <c r="J15">
-        <v>0.1081845238095238</v>
+        <v>0.12569796954314716</v>
       </c>
       <c r="K15">
-        <v>0.89945355191256848</v>
+        <v>0.9394781144781148</v>
       </c>
       <c r="L15">
-        <v>18.172999999999998</v>
+        <v>19.234999999999999</v>
       </c>
       <c r="M15">
-        <v>101.767</v>
+        <v>102.004</v>
       </c>
       <c r="N15">
-        <v>0.85199999999999998</v>
+        <v>1.0189999999999999</v>
       </c>
       <c r="O15">
-        <v>0.72899999999999998</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.86399999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>10</v>
       </c>
@@ -1201,46 +1201,46 @@
         <v>5</v>
       </c>
       <c r="C16">
-        <v>0.11344631683569377</v>
+        <v>0.1176134690436501</v>
       </c>
       <c r="D16">
-        <v>0.88993056365067136</v>
+        <v>0.95013472192321469</v>
       </c>
       <c r="E16">
-        <v>9.0399999999999991</v>
+        <v>8.9269999999999996</v>
       </c>
       <c r="F16">
-        <v>118.307</v>
+        <v>119.121</v>
       </c>
       <c r="G16">
-        <v>8.2050000000000001</v>
+        <v>9.2460000000000004</v>
       </c>
       <c r="H16">
-        <v>1.097</v>
+        <v>1.375</v>
       </c>
       <c r="I16">
-        <v>0.98699999999999999</v>
+        <v>1.1259999999999999</v>
       </c>
       <c r="J16">
-        <v>0.11545279045279046</v>
+        <v>0.13319510268562393</v>
       </c>
       <c r="K16">
-        <v>0.88490754622688672</v>
+        <v>0.94498078770413074</v>
       </c>
       <c r="L16">
-        <v>18.306999999999999</v>
+        <v>19.120999999999999</v>
       </c>
       <c r="M16">
-        <v>102.596</v>
+        <v>102.72</v>
       </c>
       <c r="N16">
-        <v>1.2110000000000001</v>
+        <v>1.361</v>
       </c>
       <c r="O16">
-        <v>1.0229999999999999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1.163</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>10</v>
       </c>
@@ -1248,43 +1248,43 @@
         <v>10</v>
       </c>
       <c r="C17">
-        <v>0.1139142842890026</v>
+        <v>0.11844598739418774</v>
       </c>
       <c r="D17">
-        <v>0.89252701515225796</v>
+        <v>0.94522097514873493</v>
       </c>
       <c r="E17">
-        <v>9.1609999999999996</v>
+        <v>9.0239999999999991</v>
       </c>
       <c r="F17">
-        <v>118.41</v>
+        <v>119.425</v>
       </c>
       <c r="G17">
-        <v>8.2919999999999998</v>
+        <v>9.4849999999999994</v>
       </c>
       <c r="H17">
-        <v>1.819</v>
+        <v>2.1349999999999998</v>
       </c>
       <c r="I17">
-        <v>1.714</v>
+        <v>1.8939999999999999</v>
       </c>
       <c r="J17">
-        <v>0.11659499335710793</v>
+        <v>0.12475612208980742</v>
       </c>
       <c r="K17">
-        <v>0.88648493213710533</v>
+        <v>0.94754434547599997</v>
       </c>
       <c r="L17">
-        <v>18.41</v>
+        <v>19.425000000000001</v>
       </c>
       <c r="M17">
-        <v>104.254</v>
+        <v>104.56699999999999</v>
       </c>
       <c r="N17">
-        <v>1.962</v>
+        <v>2.2469999999999999</v>
       </c>
       <c r="O17">
-        <v>1.6779999999999999</v>
+        <v>1.9430000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -1293,29 +1293,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC547D7C-AA52-4E28-BCF8-A59A07B03C73}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C7BE3CD-96B6-4EF0-80FF-8167C34CA5E4}">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.6640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -1356,7 +1355,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>22.981961046756272</v>
       </c>
